--- a/ProjectCode_Testcase_Template_v2.2.xlsx
+++ b/ProjectCode_Testcase_Template_v2.2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Download2\QTDACNTT2018_1-master (1)\QTDACNTT2018_1-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThangNH\git\QTDACNTT2018_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6375" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="16" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Operation Test'!$A$1:$K$75</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Overview!$A$1:$Y$37</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -336,7 +336,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="105">
   <si>
     <t>Online ID</t>
   </si>
@@ -425,9 +425,6 @@
     <t>Not OK</t>
   </si>
   <si>
-    <t>TienND</t>
-  </si>
-  <si>
     <t>Test Date</t>
   </si>
   <si>
@@ -444,9 +441,6 @@
   </si>
   <si>
     <t>Related Software:</t>
-  </si>
-  <si>
-    <t>BUG213</t>
   </si>
   <si>
     <t>Tested and result is correct</t>
@@ -676,12 +670,15 @@
   </si>
   <si>
     <t xml:space="preserve">Chuyển qua giao diện đăng kí </t>
+  </si>
+  <si>
+    <t>thangnh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d;@"/>
   </numFmts>
@@ -1518,6 +1515,30 @@
     <xf numFmtId="0" fontId="21" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1536,21 +1557,6 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1559,15 +1565,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1649,7 +1646,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0730E54B-906F-483C-AE30-73A046308AA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0730E54B-906F-483C-AE30-73A046308AA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2033,16 +2030,16 @@
   </sheetPr>
   <dimension ref="A1:AI44"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="1.375" style="3" customWidth="1"/>
-    <col min="2" max="24" width="5.625" style="3" customWidth="1"/>
-    <col min="25" max="25" width="1.375" style="3" customWidth="1"/>
-    <col min="26" max="16384" width="5.625" style="3"/>
+    <col min="1" max="1" width="1.33203125" style="3" customWidth="1"/>
+    <col min="2" max="24" width="5.6640625" style="3" customWidth="1"/>
+    <col min="25" max="25" width="1.33203125" style="3" customWidth="1"/>
+    <col min="26" max="16384" width="5.6640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="7.5" customHeight="1">
@@ -2079,7 +2076,7 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="5"/>
@@ -2198,7 +2195,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
@@ -2254,7 +2251,7 @@
       </c>
       <c r="P11" s="33"/>
       <c r="Q11" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R11" s="33"/>
       <c r="S11" s="33" t="s">
@@ -2340,10 +2337,10 @@
     <row r="15" spans="1:24">
       <c r="B15" s="30"/>
       <c r="D15" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" s="72" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F15" s="72"/>
       <c r="G15" s="72"/>
@@ -2387,7 +2384,7 @@
       <c r="G18" s="43"/>
       <c r="H18" s="43"/>
       <c r="L18" s="114" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M18" s="104"/>
       <c r="N18" s="104"/>
@@ -2458,10 +2455,10 @@
       <c r="B22" s="15"/>
       <c r="C22" s="4"/>
       <c r="D22" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="72" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F22" s="72"/>
       <c r="G22" s="72"/>
@@ -2484,7 +2481,7 @@
       <c r="B23" s="22"/>
       <c r="D23" s="18"/>
       <c r="E23" s="43" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
@@ -2657,7 +2654,7 @@
     <row r="32" spans="2:35">
       <c r="B32" s="45"/>
       <c r="C32" s="39" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
@@ -2754,7 +2751,7 @@
     <row r="35" spans="1:35">
       <c r="B35" s="30"/>
       <c r="C35" s="39" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
@@ -2967,22 +2964,22 @@
   </sheetPr>
   <dimension ref="A1:K115"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35:G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
   <cols>
-    <col min="1" max="1" width="7.875" style="2" customWidth="1"/>
-    <col min="2" max="7" width="14.125" style="1" customWidth="1"/>
-    <col min="8" max="10" width="8.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" style="2" customWidth="1"/>
+    <col min="2" max="7" width="14.109375" style="1" customWidth="1"/>
+    <col min="8" max="10" width="8.109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="59" customFormat="1">
+    <row r="1" spans="1:11" s="59" customFormat="1" ht="10.199999999999999">
       <c r="A1" s="78" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="79" t="str">
         <f>Overview!E9</f>
@@ -2993,26 +2990,26 @@
       <c r="E1" s="80"/>
       <c r="F1" s="80"/>
       <c r="G1" s="81" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H1" s="82" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I1" s="101">
         <f>COUNTIF(H1:H798,"OK")</f>
         <v>8</v>
       </c>
       <c r="J1" s="83" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K1" s="84"/>
     </row>
-    <row r="2" spans="1:11" s="59" customFormat="1">
+    <row r="2" spans="1:11" s="59" customFormat="1" ht="10.199999999999999">
       <c r="A2" s="116" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C2" s="86"/>
       <c r="D2" s="86"/>
@@ -3020,23 +3017,23 @@
       <c r="F2" s="87"/>
       <c r="G2" s="88"/>
       <c r="H2" s="89" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I2" s="102">
         <f>COUNTIF(H2:H799,"Not OK")</f>
         <v>2</v>
       </c>
       <c r="J2" s="90" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K2" s="91"/>
     </row>
     <row r="3" spans="1:11" s="59" customFormat="1" ht="11.25" customHeight="1">
       <c r="A3" s="85" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3" s="86" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" s="86"/>
       <c r="D3" s="86"/>
@@ -3044,14 +3041,14 @@
       <c r="F3" s="87"/>
       <c r="G3" s="88"/>
       <c r="H3" s="89" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I3" s="103">
         <f>COUNTIF(H2:H799,"Untested")</f>
         <v>0</v>
       </c>
       <c r="J3" s="90" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K3" s="91"/>
     </row>
@@ -3063,7 +3060,7 @@
       <c r="E4" s="87"/>
       <c r="F4" s="87"/>
       <c r="G4" s="93" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H4" s="86"/>
       <c r="I4" s="102">
@@ -3103,18 +3100,18 @@
       <c r="A7" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="152" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="153"/>
-      <c r="K7" s="154"/>
+      <c r="B7" s="138" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="140"/>
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A8" s="46" t="s">
@@ -3125,7 +3122,7 @@
       </c>
       <c r="C8" s="129"/>
       <c r="D8" s="128" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E8" s="129"/>
       <c r="F8" s="128" t="s">
@@ -3148,23 +3145,23 @@
         <v>1</v>
       </c>
       <c r="B9" s="130" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C9" s="131"/>
-      <c r="D9" s="138" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="139"/>
-      <c r="F9" s="138" t="s">
-        <v>105</v>
-      </c>
-      <c r="G9" s="139"/>
+      <c r="D9" s="146" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="147"/>
+      <c r="F9" s="146" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="147"/>
       <c r="H9" s="144" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I9" s="145"/>
       <c r="J9" s="49"/>
-      <c r="K9" s="146"/>
+      <c r="K9" s="141"/>
     </row>
     <row r="10" spans="1:11" ht="10.5" customHeight="1">
       <c r="A10" s="46" t="s">
@@ -3172,10 +3169,10 @@
       </c>
       <c r="B10" s="132"/>
       <c r="C10" s="133"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="141"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="149"/>
       <c r="H10" s="117" t="s">
         <v>27</v>
       </c>
@@ -3183,9 +3180,9 @@
         <v>1</v>
       </c>
       <c r="J10" s="117" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="147"/>
+        <v>30</v>
+      </c>
+      <c r="K10" s="142"/>
     </row>
     <row r="11" spans="1:11" ht="10.5" customHeight="1">
       <c r="A11" s="50" t="s">
@@ -3193,16 +3190,16 @@
       </c>
       <c r="B11" s="132"/>
       <c r="C11" s="133"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="141"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="149"/>
       <c r="H11" s="51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I11" s="51"/>
       <c r="J11" s="49"/>
-      <c r="K11" s="147"/>
+      <c r="K11" s="142"/>
     </row>
     <row r="12" spans="1:11" ht="10.5" customHeight="1">
       <c r="A12" s="46" t="s">
@@ -3210,18 +3207,18 @@
       </c>
       <c r="B12" s="132"/>
       <c r="C12" s="133"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="141"/>
+      <c r="D12" s="148"/>
+      <c r="E12" s="149"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="149"/>
       <c r="H12" s="117" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I12" s="117" t="s">
         <v>26</v>
       </c>
       <c r="J12" s="117"/>
-      <c r="K12" s="147"/>
+      <c r="K12" s="142"/>
     </row>
     <row r="13" spans="1:11" ht="10.5" customHeight="1">
       <c r="A13" s="52">
@@ -3229,33 +3226,33 @@
       </c>
       <c r="B13" s="134"/>
       <c r="C13" s="135"/>
-      <c r="D13" s="142"/>
-      <c r="E13" s="143"/>
-      <c r="F13" s="142"/>
-      <c r="G13" s="143"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="150"/>
+      <c r="G13" s="151"/>
       <c r="H13" s="54">
         <v>43385</v>
       </c>
       <c r="I13" s="54"/>
       <c r="J13" s="55"/>
-      <c r="K13" s="148"/>
+      <c r="K13" s="143"/>
     </row>
     <row r="14" spans="1:11" ht="10.5" customHeight="1">
       <c r="A14" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="152" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="153"/>
-      <c r="D14" s="153"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="153"/>
-      <c r="I14" s="153"/>
-      <c r="J14" s="153"/>
-      <c r="K14" s="154"/>
+      <c r="B14" s="138" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="139"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="139"/>
+      <c r="J14" s="139"/>
+      <c r="K14" s="140"/>
     </row>
     <row r="15" spans="1:11" ht="10.5" customHeight="1">
       <c r="A15" s="117" t="s">
@@ -3266,7 +3263,7 @@
       </c>
       <c r="C15" s="129"/>
       <c r="D15" s="128" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E15" s="129"/>
       <c r="F15" s="128" t="s">
@@ -3289,23 +3286,23 @@
         <v>2</v>
       </c>
       <c r="B16" s="130" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C16" s="131"/>
-      <c r="D16" s="138" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="139"/>
-      <c r="F16" s="138" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" s="139"/>
+      <c r="D16" s="146" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="147"/>
+      <c r="F16" s="146" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="147"/>
       <c r="H16" s="144" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I16" s="145"/>
       <c r="J16" s="49"/>
-      <c r="K16" s="146"/>
+      <c r="K16" s="141"/>
     </row>
     <row r="17" spans="1:11" ht="10.5" customHeight="1">
       <c r="A17" s="117" t="s">
@@ -3313,10 +3310,10 @@
       </c>
       <c r="B17" s="132"/>
       <c r="C17" s="133"/>
-      <c r="D17" s="140"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="141"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="148"/>
+      <c r="G17" s="149"/>
       <c r="H17" s="117" t="s">
         <v>27</v>
       </c>
@@ -3324,26 +3321,26 @@
         <v>1</v>
       </c>
       <c r="J17" s="117" t="s">
-        <v>31</v>
-      </c>
-      <c r="K17" s="147"/>
+        <v>30</v>
+      </c>
+      <c r="K17" s="142"/>
     </row>
     <row r="18" spans="1:11" ht="10.5" customHeight="1">
       <c r="A18" s="50" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B18" s="132"/>
       <c r="C18" s="133"/>
-      <c r="D18" s="140"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="141"/>
+      <c r="D18" s="148"/>
+      <c r="E18" s="149"/>
+      <c r="F18" s="148"/>
+      <c r="G18" s="149"/>
       <c r="H18" s="51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I18" s="51"/>
       <c r="J18" s="49"/>
-      <c r="K18" s="147"/>
+      <c r="K18" s="142"/>
     </row>
     <row r="19" spans="1:11" ht="10.5" customHeight="1">
       <c r="A19" s="117" t="s">
@@ -3351,18 +3348,18 @@
       </c>
       <c r="B19" s="132"/>
       <c r="C19" s="133"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="141"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="149"/>
+      <c r="F19" s="148"/>
+      <c r="G19" s="149"/>
       <c r="H19" s="117" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I19" s="117" t="s">
         <v>26</v>
       </c>
       <c r="J19" s="117"/>
-      <c r="K19" s="147"/>
+      <c r="K19" s="142"/>
     </row>
     <row r="20" spans="1:11" ht="10.5" customHeight="1">
       <c r="A20" s="52">
@@ -3370,16 +3367,16 @@
       </c>
       <c r="B20" s="134"/>
       <c r="C20" s="135"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="143"/>
+      <c r="D20" s="150"/>
+      <c r="E20" s="151"/>
+      <c r="F20" s="150"/>
+      <c r="G20" s="151"/>
       <c r="H20" s="54">
         <v>43385</v>
       </c>
       <c r="I20" s="54"/>
       <c r="J20" s="55"/>
-      <c r="K20" s="148"/>
+      <c r="K20" s="143"/>
     </row>
     <row r="21" spans="1:11" ht="10.5" customHeight="1">
       <c r="A21" s="117" t="s">
@@ -3390,7 +3387,7 @@
       </c>
       <c r="C21" s="129"/>
       <c r="D21" s="128" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E21" s="129"/>
       <c r="F21" s="128" t="s">
@@ -3413,23 +3410,23 @@
         <v>3</v>
       </c>
       <c r="B22" s="130" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C22" s="131"/>
-      <c r="D22" s="138" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="139"/>
-      <c r="F22" s="138" t="s">
-        <v>104</v>
-      </c>
-      <c r="G22" s="139"/>
+      <c r="D22" s="146" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="147"/>
+      <c r="F22" s="146" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="147"/>
       <c r="H22" s="144" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I22" s="145"/>
       <c r="J22" s="49"/>
-      <c r="K22" s="146"/>
+      <c r="K22" s="141"/>
     </row>
     <row r="23" spans="1:11" ht="10.5" customHeight="1">
       <c r="A23" s="117" t="s">
@@ -3437,10 +3434,10 @@
       </c>
       <c r="B23" s="132"/>
       <c r="C23" s="133"/>
-      <c r="D23" s="140"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="140"/>
-      <c r="G23" s="141"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="149"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="149"/>
       <c r="H23" s="117" t="s">
         <v>27</v>
       </c>
@@ -3448,26 +3445,26 @@
         <v>1</v>
       </c>
       <c r="J23" s="117" t="s">
-        <v>31</v>
-      </c>
-      <c r="K23" s="147"/>
+        <v>30</v>
+      </c>
+      <c r="K23" s="142"/>
     </row>
     <row r="24" spans="1:11" ht="10.5" customHeight="1">
       <c r="A24" s="50" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B24" s="132"/>
       <c r="C24" s="133"/>
-      <c r="D24" s="140"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="140"/>
-      <c r="G24" s="141"/>
+      <c r="D24" s="148"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="148"/>
+      <c r="G24" s="149"/>
       <c r="H24" s="51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I24" s="51"/>
       <c r="J24" s="49"/>
-      <c r="K24" s="147"/>
+      <c r="K24" s="142"/>
     </row>
     <row r="25" spans="1:11" ht="10.5" customHeight="1">
       <c r="A25" s="117" t="s">
@@ -3475,18 +3472,18 @@
       </c>
       <c r="B25" s="132"/>
       <c r="C25" s="133"/>
-      <c r="D25" s="140"/>
-      <c r="E25" s="141"/>
-      <c r="F25" s="140"/>
-      <c r="G25" s="141"/>
+      <c r="D25" s="148"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="149"/>
       <c r="H25" s="117" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I25" s="117" t="s">
         <v>26</v>
       </c>
       <c r="J25" s="117"/>
-      <c r="K25" s="147"/>
+      <c r="K25" s="142"/>
     </row>
     <row r="26" spans="1:11" ht="10.5" customHeight="1">
       <c r="A26" s="52">
@@ -3494,33 +3491,33 @@
       </c>
       <c r="B26" s="134"/>
       <c r="C26" s="135"/>
-      <c r="D26" s="142"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="143"/>
+      <c r="D26" s="150"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="151"/>
       <c r="H26" s="54">
         <v>43385</v>
       </c>
       <c r="I26" s="54"/>
       <c r="J26" s="55"/>
-      <c r="K26" s="148"/>
+      <c r="K26" s="143"/>
     </row>
     <row r="27" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A27" s="100" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="149" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="150"/>
-      <c r="D27" s="150"/>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="151"/>
+        <v>68</v>
+      </c>
+      <c r="B27" s="152" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="153"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="153"/>
+      <c r="F27" s="153"/>
+      <c r="G27" s="153"/>
+      <c r="H27" s="153"/>
+      <c r="I27" s="153"/>
+      <c r="J27" s="153"/>
+      <c r="K27" s="154"/>
     </row>
     <row r="28" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A28" s="125" t="s">
@@ -3531,7 +3528,7 @@
       </c>
       <c r="C28" s="137"/>
       <c r="D28" s="136" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E28" s="137"/>
       <c r="F28" s="136" t="s">
@@ -3554,23 +3551,23 @@
         <v>4</v>
       </c>
       <c r="B29" s="130" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C29" s="131"/>
-      <c r="D29" s="138" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="139"/>
-      <c r="F29" s="138" t="s">
-        <v>102</v>
-      </c>
-      <c r="G29" s="139"/>
+      <c r="D29" s="146" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="147"/>
+      <c r="F29" s="146" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="147"/>
       <c r="H29" s="144" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I29" s="145"/>
       <c r="J29" s="49"/>
-      <c r="K29" s="146"/>
+      <c r="K29" s="141"/>
     </row>
     <row r="30" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A30" s="125" t="s">
@@ -3578,10 +3575,10 @@
       </c>
       <c r="B30" s="132"/>
       <c r="C30" s="133"/>
-      <c r="D30" s="140"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="140"/>
-      <c r="G30" s="141"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="149"/>
       <c r="H30" s="125" t="s">
         <v>27</v>
       </c>
@@ -3589,26 +3586,26 @@
         <v>1</v>
       </c>
       <c r="J30" s="125" t="s">
-        <v>31</v>
-      </c>
-      <c r="K30" s="147"/>
+        <v>30</v>
+      </c>
+      <c r="K30" s="142"/>
     </row>
     <row r="31" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A31" s="50" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B31" s="132"/>
       <c r="C31" s="133"/>
-      <c r="D31" s="140"/>
-      <c r="E31" s="141"/>
-      <c r="F31" s="140"/>
-      <c r="G31" s="141"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="149"/>
       <c r="H31" s="51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I31" s="51"/>
       <c r="J31" s="49"/>
-      <c r="K31" s="147"/>
+      <c r="K31" s="142"/>
     </row>
     <row r="32" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A32" s="125" t="s">
@@ -3616,16 +3613,16 @@
       </c>
       <c r="B32" s="132"/>
       <c r="C32" s="133"/>
-      <c r="D32" s="140"/>
-      <c r="E32" s="141"/>
-      <c r="F32" s="140"/>
-      <c r="G32" s="141"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="149"/>
       <c r="H32" s="125" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I32" s="125"/>
       <c r="J32" s="125"/>
-      <c r="K32" s="147"/>
+      <c r="K32" s="142"/>
     </row>
     <row r="33" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A33" s="52">
@@ -3633,16 +3630,16 @@
       </c>
       <c r="B33" s="134"/>
       <c r="C33" s="135"/>
-      <c r="D33" s="142"/>
-      <c r="E33" s="143"/>
-      <c r="F33" s="142"/>
-      <c r="G33" s="143"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="151"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="151"/>
       <c r="H33" s="54">
         <v>43385</v>
       </c>
       <c r="I33" s="51"/>
       <c r="J33" s="49"/>
-      <c r="K33" s="148"/>
+      <c r="K33" s="143"/>
     </row>
     <row r="34" spans="1:11" ht="10.5" customHeight="1">
       <c r="A34" s="56" t="s">
@@ -3653,7 +3650,7 @@
       </c>
       <c r="C34" s="137"/>
       <c r="D34" s="136" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E34" s="137"/>
       <c r="F34" s="136" t="s">
@@ -3676,25 +3673,25 @@
         <v>5</v>
       </c>
       <c r="B35" s="130" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C35" s="131"/>
-      <c r="D35" s="138" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="139"/>
-      <c r="F35" s="138" t="s">
-        <v>103</v>
-      </c>
-      <c r="G35" s="139"/>
+      <c r="D35" s="146" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="147"/>
+      <c r="F35" s="146" t="s">
+        <v>101</v>
+      </c>
+      <c r="G35" s="147"/>
       <c r="H35" s="144" t="s">
         <v>28</v>
       </c>
       <c r="I35" s="145"/>
       <c r="J35" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="K35" s="146"/>
+        <v>61</v>
+      </c>
+      <c r="K35" s="141"/>
     </row>
     <row r="36" spans="1:11" ht="10.5" customHeight="1">
       <c r="A36" s="56" t="s">
@@ -3702,10 +3699,10 @@
       </c>
       <c r="B36" s="132"/>
       <c r="C36" s="133"/>
-      <c r="D36" s="140"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="140"/>
-      <c r="G36" s="141"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="149"/>
       <c r="H36" s="56" t="s">
         <v>27</v>
       </c>
@@ -3713,9 +3710,9 @@
         <v>1</v>
       </c>
       <c r="J36" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="K36" s="147"/>
+        <v>30</v>
+      </c>
+      <c r="K36" s="142"/>
     </row>
     <row r="37" spans="1:11" ht="10.5" customHeight="1">
       <c r="A37" s="50" t="s">
@@ -3723,16 +3720,18 @@
       </c>
       <c r="B37" s="132"/>
       <c r="C37" s="133"/>
-      <c r="D37" s="140"/>
-      <c r="E37" s="141"/>
-      <c r="F37" s="140"/>
-      <c r="G37" s="141"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="149"/>
       <c r="H37" s="51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I37" s="51"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="147"/>
+      <c r="J37" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="K37" s="142"/>
     </row>
     <row r="38" spans="1:11" ht="10.5" customHeight="1">
       <c r="A38" s="56" t="s">
@@ -3740,16 +3739,16 @@
       </c>
       <c r="B38" s="132"/>
       <c r="C38" s="133"/>
-      <c r="D38" s="140"/>
-      <c r="E38" s="141"/>
-      <c r="F38" s="140"/>
-      <c r="G38" s="141"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="149"/>
       <c r="H38" s="56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I38" s="56"/>
       <c r="J38" s="56"/>
-      <c r="K38" s="147"/>
+      <c r="K38" s="142"/>
     </row>
     <row r="39" spans="1:11" ht="10.5" customHeight="1">
       <c r="A39" s="52">
@@ -3757,18 +3756,18 @@
       </c>
       <c r="B39" s="134"/>
       <c r="C39" s="135"/>
-      <c r="D39" s="142"/>
-      <c r="E39" s="143"/>
-      <c r="F39" s="142"/>
-      <c r="G39" s="143"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="151"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="151"/>
       <c r="H39" s="54">
         <v>43385</v>
       </c>
       <c r="I39" s="51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J39" s="49"/>
-      <c r="K39" s="148"/>
+      <c r="K39" s="143"/>
     </row>
     <row r="40" spans="1:11" ht="10.5" customHeight="1">
       <c r="A40" s="46" t="s">
@@ -3779,7 +3778,7 @@
       </c>
       <c r="C40" s="129"/>
       <c r="D40" s="128" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E40" s="129"/>
       <c r="F40" s="128" t="s">
@@ -3802,25 +3801,23 @@
         <v>6</v>
       </c>
       <c r="B41" s="130" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C41" s="131"/>
-      <c r="D41" s="138" t="s">
-        <v>59</v>
-      </c>
-      <c r="E41" s="139"/>
-      <c r="F41" s="138" t="s">
-        <v>102</v>
-      </c>
-      <c r="G41" s="139"/>
+      <c r="D41" s="146" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" s="147"/>
+      <c r="F41" s="146" t="s">
+        <v>100</v>
+      </c>
+      <c r="G41" s="147"/>
       <c r="H41" s="144" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I41" s="145"/>
-      <c r="J41" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="K41" s="146"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="141"/>
     </row>
     <row r="42" spans="1:11" ht="10.5" customHeight="1">
       <c r="A42" s="46" t="s">
@@ -3828,10 +3825,10 @@
       </c>
       <c r="B42" s="132"/>
       <c r="C42" s="133"/>
-      <c r="D42" s="140"/>
-      <c r="E42" s="141"/>
-      <c r="F42" s="140"/>
-      <c r="G42" s="141"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="149"/>
       <c r="H42" s="46" t="s">
         <v>27</v>
       </c>
@@ -3839,30 +3836,28 @@
         <v>1</v>
       </c>
       <c r="J42" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="K42" s="147"/>
+        <v>30</v>
+      </c>
+      <c r="K42" s="142"/>
     </row>
     <row r="43" spans="1:11" ht="10.5" customHeight="1">
       <c r="A43" s="50" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B43" s="132"/>
       <c r="C43" s="133"/>
-      <c r="D43" s="140"/>
-      <c r="E43" s="141"/>
-      <c r="F43" s="140"/>
-      <c r="G43" s="141"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="149"/>
       <c r="H43" s="51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I43" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="J43" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="K43" s="147"/>
+        <v>31</v>
+      </c>
+      <c r="J43" s="49"/>
+      <c r="K43" s="142"/>
     </row>
     <row r="44" spans="1:11" ht="10.5" customHeight="1">
       <c r="A44" s="46" t="s">
@@ -3870,18 +3865,18 @@
       </c>
       <c r="B44" s="132"/>
       <c r="C44" s="133"/>
-      <c r="D44" s="140"/>
-      <c r="E44" s="141"/>
-      <c r="F44" s="140"/>
-      <c r="G44" s="141"/>
+      <c r="D44" s="148"/>
+      <c r="E44" s="149"/>
+      <c r="F44" s="148"/>
+      <c r="G44" s="149"/>
       <c r="H44" s="46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I44" s="46" t="s">
         <v>26</v>
       </c>
       <c r="J44" s="46"/>
-      <c r="K44" s="147"/>
+      <c r="K44" s="142"/>
     </row>
     <row r="45" spans="1:11" ht="10.5" customHeight="1">
       <c r="A45" s="52">
@@ -3889,16 +3884,16 @@
       </c>
       <c r="B45" s="134"/>
       <c r="C45" s="135"/>
-      <c r="D45" s="142"/>
-      <c r="E45" s="143"/>
-      <c r="F45" s="142"/>
-      <c r="G45" s="143"/>
+      <c r="D45" s="150"/>
+      <c r="E45" s="151"/>
+      <c r="F45" s="150"/>
+      <c r="G45" s="151"/>
       <c r="H45" s="54">
         <v>43385</v>
       </c>
       <c r="I45" s="51"/>
       <c r="J45" s="49"/>
-      <c r="K45" s="148"/>
+      <c r="K45" s="143"/>
     </row>
     <row r="46" spans="1:11" ht="10.5" customHeight="1">
       <c r="A46" s="46" t="s">
@@ -3909,7 +3904,7 @@
       </c>
       <c r="C46" s="129"/>
       <c r="D46" s="128" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E46" s="129"/>
       <c r="F46" s="128" t="s">
@@ -3932,25 +3927,23 @@
         <v>7</v>
       </c>
       <c r="B47" s="130" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C47" s="131"/>
-      <c r="D47" s="138" t="s">
-        <v>61</v>
-      </c>
-      <c r="E47" s="139"/>
-      <c r="F47" s="138" t="s">
-        <v>102</v>
-      </c>
-      <c r="G47" s="139"/>
+      <c r="D47" s="146" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" s="147"/>
+      <c r="F47" s="146" t="s">
+        <v>100</v>
+      </c>
+      <c r="G47" s="147"/>
       <c r="H47" s="144" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I47" s="145"/>
-      <c r="J47" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="K47" s="146"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="141"/>
     </row>
     <row r="48" spans="1:11" ht="10.5" customHeight="1">
       <c r="A48" s="46" t="s">
@@ -3958,10 +3951,10 @@
       </c>
       <c r="B48" s="132"/>
       <c r="C48" s="133"/>
-      <c r="D48" s="140"/>
-      <c r="E48" s="141"/>
-      <c r="F48" s="140"/>
-      <c r="G48" s="141"/>
+      <c r="D48" s="148"/>
+      <c r="E48" s="149"/>
+      <c r="F48" s="148"/>
+      <c r="G48" s="149"/>
       <c r="H48" s="46" t="s">
         <v>27</v>
       </c>
@@ -3969,30 +3962,28 @@
         <v>1</v>
       </c>
       <c r="J48" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="K48" s="147"/>
+        <v>30</v>
+      </c>
+      <c r="K48" s="142"/>
     </row>
     <row r="49" spans="1:11" ht="10.5" customHeight="1">
       <c r="A49" s="50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B49" s="132"/>
       <c r="C49" s="133"/>
-      <c r="D49" s="140"/>
-      <c r="E49" s="141"/>
-      <c r="F49" s="140"/>
-      <c r="G49" s="141"/>
+      <c r="D49" s="148"/>
+      <c r="E49" s="149"/>
+      <c r="F49" s="148"/>
+      <c r="G49" s="149"/>
       <c r="H49" s="51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I49" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="J49" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="K49" s="147"/>
+        <v>31</v>
+      </c>
+      <c r="J49" s="49"/>
+      <c r="K49" s="142"/>
     </row>
     <row r="50" spans="1:11" ht="10.5" customHeight="1">
       <c r="A50" s="46" t="s">
@@ -4000,18 +3991,18 @@
       </c>
       <c r="B50" s="132"/>
       <c r="C50" s="133"/>
-      <c r="D50" s="140"/>
-      <c r="E50" s="141"/>
-      <c r="F50" s="140"/>
-      <c r="G50" s="141"/>
+      <c r="D50" s="148"/>
+      <c r="E50" s="149"/>
+      <c r="F50" s="148"/>
+      <c r="G50" s="149"/>
       <c r="H50" s="46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I50" s="46" t="s">
         <v>26</v>
       </c>
       <c r="J50" s="46"/>
-      <c r="K50" s="147"/>
+      <c r="K50" s="142"/>
     </row>
     <row r="51" spans="1:11" ht="10.5" customHeight="1">
       <c r="A51" s="52">
@@ -4019,33 +4010,33 @@
       </c>
       <c r="B51" s="134"/>
       <c r="C51" s="135"/>
-      <c r="D51" s="142"/>
-      <c r="E51" s="143"/>
-      <c r="F51" s="142"/>
-      <c r="G51" s="143"/>
+      <c r="D51" s="150"/>
+      <c r="E51" s="151"/>
+      <c r="F51" s="150"/>
+      <c r="G51" s="151"/>
       <c r="H51" s="54">
         <v>43385</v>
       </c>
       <c r="I51" s="51"/>
       <c r="J51" s="49"/>
-      <c r="K51" s="148"/>
+      <c r="K51" s="143"/>
     </row>
     <row r="52" spans="1:11" ht="10.5" customHeight="1">
       <c r="A52" s="100" t="s">
-        <v>78</v>
-      </c>
-      <c r="B52" s="152" t="s">
-        <v>74</v>
-      </c>
-      <c r="C52" s="153"/>
-      <c r="D52" s="153"/>
-      <c r="E52" s="153"/>
-      <c r="F52" s="153"/>
-      <c r="G52" s="153"/>
-      <c r="H52" s="153"/>
-      <c r="I52" s="153"/>
-      <c r="J52" s="153"/>
-      <c r="K52" s="154"/>
+        <v>76</v>
+      </c>
+      <c r="B52" s="138" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" s="139"/>
+      <c r="D52" s="139"/>
+      <c r="E52" s="139"/>
+      <c r="F52" s="139"/>
+      <c r="G52" s="139"/>
+      <c r="H52" s="139"/>
+      <c r="I52" s="139"/>
+      <c r="J52" s="139"/>
+      <c r="K52" s="140"/>
     </row>
     <row r="53" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A53" s="117" t="s">
@@ -4056,7 +4047,7 @@
       </c>
       <c r="C53" s="129"/>
       <c r="D53" s="128" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E53" s="129"/>
       <c r="F53" s="128" t="s">
@@ -4079,23 +4070,23 @@
         <v>8</v>
       </c>
       <c r="B54" s="130" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="131"/>
+      <c r="D54" s="146" t="s">
+        <v>74</v>
+      </c>
+      <c r="E54" s="147"/>
+      <c r="F54" s="119" t="s">
         <v>75</v>
-      </c>
-      <c r="C54" s="131"/>
-      <c r="D54" s="138" t="s">
-        <v>76</v>
-      </c>
-      <c r="E54" s="139"/>
-      <c r="F54" s="119" t="s">
-        <v>77</v>
       </c>
       <c r="G54" s="120"/>
       <c r="H54" s="144" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I54" s="145"/>
       <c r="J54" s="49"/>
-      <c r="K54" s="146"/>
+      <c r="K54" s="141"/>
     </row>
     <row r="55" spans="1:11" ht="10.5" customHeight="1">
       <c r="A55" s="117" t="s">
@@ -4103,8 +4094,8 @@
       </c>
       <c r="B55" s="132"/>
       <c r="C55" s="133"/>
-      <c r="D55" s="140"/>
-      <c r="E55" s="141"/>
+      <c r="D55" s="148"/>
+      <c r="E55" s="149"/>
       <c r="F55" s="121"/>
       <c r="G55" s="122"/>
       <c r="H55" s="117" t="s">
@@ -4114,26 +4105,26 @@
         <v>1</v>
       </c>
       <c r="J55" s="117" t="s">
-        <v>31</v>
-      </c>
-      <c r="K55" s="147"/>
+        <v>30</v>
+      </c>
+      <c r="K55" s="142"/>
     </row>
     <row r="56" spans="1:11" ht="10.5" customHeight="1">
       <c r="A56" s="50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B56" s="132"/>
       <c r="C56" s="133"/>
-      <c r="D56" s="140"/>
-      <c r="E56" s="141"/>
+      <c r="D56" s="148"/>
+      <c r="E56" s="149"/>
       <c r="F56" s="121"/>
       <c r="G56" s="122"/>
       <c r="H56" s="51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I56" s="51"/>
       <c r="J56" s="49"/>
-      <c r="K56" s="147"/>
+      <c r="K56" s="142"/>
     </row>
     <row r="57" spans="1:11" ht="10.5" customHeight="1">
       <c r="A57" s="117" t="s">
@@ -4141,18 +4132,18 @@
       </c>
       <c r="B57" s="132"/>
       <c r="C57" s="133"/>
-      <c r="D57" s="140"/>
-      <c r="E57" s="141"/>
+      <c r="D57" s="148"/>
+      <c r="E57" s="149"/>
       <c r="F57" s="121"/>
       <c r="G57" s="122"/>
       <c r="H57" s="117" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I57" s="117" t="s">
         <v>26</v>
       </c>
       <c r="J57" s="117"/>
-      <c r="K57" s="147"/>
+      <c r="K57" s="142"/>
     </row>
     <row r="58" spans="1:11" ht="10.5" customHeight="1">
       <c r="A58" s="52">
@@ -4160,8 +4151,8 @@
       </c>
       <c r="B58" s="134"/>
       <c r="C58" s="135"/>
-      <c r="D58" s="142"/>
-      <c r="E58" s="143"/>
+      <c r="D58" s="150"/>
+      <c r="E58" s="151"/>
       <c r="F58" s="123"/>
       <c r="G58" s="124"/>
       <c r="H58" s="54">
@@ -4169,26 +4160,26 @@
       </c>
       <c r="I58" s="54"/>
       <c r="J58" s="55"/>
-      <c r="K58" s="148"/>
-    </row>
-    <row r="59" spans="1:11" s="59" customFormat="1">
+      <c r="K58" s="143"/>
+    </row>
+    <row r="59" spans="1:11" s="59" customFormat="1" ht="10.199999999999999">
       <c r="A59" s="100" t="s">
-        <v>81</v>
-      </c>
-      <c r="B59" s="152" t="s">
-        <v>82</v>
-      </c>
-      <c r="C59" s="153"/>
-      <c r="D59" s="153"/>
-      <c r="E59" s="153"/>
-      <c r="F59" s="153"/>
-      <c r="G59" s="153"/>
-      <c r="H59" s="153"/>
-      <c r="I59" s="153"/>
-      <c r="J59" s="153"/>
-      <c r="K59" s="154"/>
-    </row>
-    <row r="60" spans="1:11" s="59" customFormat="1">
+        <v>79</v>
+      </c>
+      <c r="B59" s="138" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="139"/>
+      <c r="D59" s="139"/>
+      <c r="E59" s="139"/>
+      <c r="F59" s="139"/>
+      <c r="G59" s="139"/>
+      <c r="H59" s="139"/>
+      <c r="I59" s="139"/>
+      <c r="J59" s="139"/>
+      <c r="K59" s="140"/>
+    </row>
+    <row r="60" spans="1:11" s="59" customFormat="1" ht="10.199999999999999">
       <c r="A60" s="117" t="s">
         <v>19</v>
       </c>
@@ -4197,7 +4188,7 @@
       </c>
       <c r="C60" s="129"/>
       <c r="D60" s="128" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E60" s="129"/>
       <c r="F60" s="128" t="s">
@@ -4220,34 +4211,34 @@
         <v>9</v>
       </c>
       <c r="B61" s="130" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" s="131"/>
+      <c r="D61" s="146" t="s">
+        <v>82</v>
+      </c>
+      <c r="E61" s="147"/>
+      <c r="F61" s="146" t="s">
         <v>83</v>
       </c>
-      <c r="C61" s="131"/>
-      <c r="D61" s="138" t="s">
-        <v>84</v>
-      </c>
-      <c r="E61" s="139"/>
-      <c r="F61" s="138" t="s">
-        <v>85</v>
-      </c>
-      <c r="G61" s="139"/>
+      <c r="G61" s="147"/>
       <c r="H61" s="144" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I61" s="145"/>
       <c r="J61" s="49"/>
-      <c r="K61" s="146"/>
-    </row>
-    <row r="62" spans="1:11" s="59" customFormat="1">
+      <c r="K61" s="141"/>
+    </row>
+    <row r="62" spans="1:11" s="59" customFormat="1" ht="10.199999999999999">
       <c r="A62" s="117" t="s">
         <v>25</v>
       </c>
       <c r="B62" s="132"/>
       <c r="C62" s="133"/>
-      <c r="D62" s="140"/>
-      <c r="E62" s="141"/>
-      <c r="F62" s="140"/>
-      <c r="G62" s="141"/>
+      <c r="D62" s="148"/>
+      <c r="E62" s="149"/>
+      <c r="F62" s="148"/>
+      <c r="G62" s="149"/>
       <c r="H62" s="117" t="s">
         <v>27</v>
       </c>
@@ -4255,81 +4246,81 @@
         <v>1</v>
       </c>
       <c r="J62" s="117" t="s">
-        <v>31</v>
-      </c>
-      <c r="K62" s="147"/>
-    </row>
-    <row r="63" spans="1:11" s="59" customFormat="1">
+        <v>30</v>
+      </c>
+      <c r="K62" s="142"/>
+    </row>
+    <row r="63" spans="1:11" s="59" customFormat="1" ht="10.199999999999999">
       <c r="A63" s="50" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B63" s="132"/>
       <c r="C63" s="133"/>
-      <c r="D63" s="140"/>
-      <c r="E63" s="141"/>
-      <c r="F63" s="140"/>
-      <c r="G63" s="141"/>
+      <c r="D63" s="148"/>
+      <c r="E63" s="149"/>
+      <c r="F63" s="148"/>
+      <c r="G63" s="149"/>
       <c r="H63" s="51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I63" s="51"/>
       <c r="J63" s="49"/>
-      <c r="K63" s="147"/>
-    </row>
-    <row r="64" spans="1:11" s="59" customFormat="1">
+      <c r="K63" s="142"/>
+    </row>
+    <row r="64" spans="1:11" s="59" customFormat="1" ht="10.199999999999999">
       <c r="A64" s="117" t="s">
         <v>0</v>
       </c>
       <c r="B64" s="132"/>
       <c r="C64" s="133"/>
-      <c r="D64" s="140"/>
-      <c r="E64" s="141"/>
-      <c r="F64" s="140"/>
-      <c r="G64" s="141"/>
+      <c r="D64" s="148"/>
+      <c r="E64" s="149"/>
+      <c r="F64" s="148"/>
+      <c r="G64" s="149"/>
       <c r="H64" s="117" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I64" s="117" t="s">
         <v>26</v>
       </c>
       <c r="J64" s="117"/>
-      <c r="K64" s="147"/>
-    </row>
-    <row r="65" spans="1:11" s="59" customFormat="1">
+      <c r="K64" s="142"/>
+    </row>
+    <row r="65" spans="1:11" s="59" customFormat="1" ht="10.199999999999999">
       <c r="A65" s="52">
         <v>998</v>
       </c>
       <c r="B65" s="134"/>
       <c r="C65" s="135"/>
-      <c r="D65" s="142"/>
-      <c r="E65" s="143"/>
-      <c r="F65" s="142"/>
-      <c r="G65" s="143"/>
+      <c r="D65" s="150"/>
+      <c r="E65" s="151"/>
+      <c r="F65" s="150"/>
+      <c r="G65" s="151"/>
       <c r="H65" s="54">
         <v>43385</v>
       </c>
       <c r="I65" s="54"/>
       <c r="J65" s="55"/>
-      <c r="K65" s="148"/>
-    </row>
-    <row r="66" spans="1:11" s="59" customFormat="1">
+      <c r="K65" s="143"/>
+    </row>
+    <row r="66" spans="1:11" s="59" customFormat="1" ht="10.199999999999999">
       <c r="A66" s="100" t="s">
-        <v>93</v>
-      </c>
-      <c r="B66" s="152" t="s">
-        <v>87</v>
-      </c>
-      <c r="C66" s="153"/>
-      <c r="D66" s="153"/>
-      <c r="E66" s="153"/>
-      <c r="F66" s="153"/>
-      <c r="G66" s="153"/>
-      <c r="H66" s="153"/>
-      <c r="I66" s="153"/>
-      <c r="J66" s="153"/>
-      <c r="K66" s="154"/>
-    </row>
-    <row r="67" spans="1:11" s="59" customFormat="1">
+        <v>91</v>
+      </c>
+      <c r="B66" s="138" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="139"/>
+      <c r="D66" s="139"/>
+      <c r="E66" s="139"/>
+      <c r="F66" s="139"/>
+      <c r="G66" s="139"/>
+      <c r="H66" s="139"/>
+      <c r="I66" s="139"/>
+      <c r="J66" s="139"/>
+      <c r="K66" s="140"/>
+    </row>
+    <row r="67" spans="1:11" s="59" customFormat="1" ht="10.199999999999999">
       <c r="A67" s="117" t="s">
         <v>19</v>
       </c>
@@ -4338,7 +4329,7 @@
       </c>
       <c r="C67" s="129"/>
       <c r="D67" s="128" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E67" s="129"/>
       <c r="F67" s="128" t="s">
@@ -4356,41 +4347,41 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="59" customFormat="1">
+    <row r="68" spans="1:11" s="59" customFormat="1" ht="10.199999999999999">
       <c r="A68" s="49">
         <v>10</v>
       </c>
       <c r="B68" s="130" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="131"/>
+      <c r="D68" s="146" t="s">
+        <v>87</v>
+      </c>
+      <c r="E68" s="147"/>
+      <c r="F68" s="146" t="s">
         <v>88</v>
       </c>
-      <c r="C68" s="131"/>
-      <c r="D68" s="138" t="s">
-        <v>89</v>
-      </c>
-      <c r="E68" s="139"/>
-      <c r="F68" s="138" t="s">
-        <v>90</v>
-      </c>
-      <c r="G68" s="139"/>
+      <c r="G68" s="147"/>
       <c r="H68" s="144" t="s">
         <v>28</v>
       </c>
       <c r="I68" s="145"/>
       <c r="J68" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="K68" s="146"/>
-    </row>
-    <row r="69" spans="1:11" s="59" customFormat="1">
+        <v>90</v>
+      </c>
+      <c r="K68" s="141"/>
+    </row>
+    <row r="69" spans="1:11" s="59" customFormat="1" ht="10.199999999999999">
       <c r="A69" s="117" t="s">
         <v>25</v>
       </c>
       <c r="B69" s="132"/>
       <c r="C69" s="133"/>
-      <c r="D69" s="140"/>
-      <c r="E69" s="141"/>
-      <c r="F69" s="140"/>
-      <c r="G69" s="141"/>
+      <c r="D69" s="148"/>
+      <c r="E69" s="149"/>
+      <c r="F69" s="148"/>
+      <c r="G69" s="149"/>
       <c r="H69" s="117" t="s">
         <v>27</v>
       </c>
@@ -4398,64 +4389,66 @@
         <v>1</v>
       </c>
       <c r="J69" s="117" t="s">
-        <v>31</v>
-      </c>
-      <c r="K69" s="147"/>
-    </row>
-    <row r="70" spans="1:11" s="59" customFormat="1">
+        <v>30</v>
+      </c>
+      <c r="K69" s="142"/>
+    </row>
+    <row r="70" spans="1:11" s="59" customFormat="1" ht="10.199999999999999">
       <c r="A70" s="50" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B70" s="132"/>
       <c r="C70" s="133"/>
-      <c r="D70" s="140"/>
-      <c r="E70" s="141"/>
-      <c r="F70" s="140"/>
-      <c r="G70" s="141"/>
+      <c r="D70" s="148"/>
+      <c r="E70" s="149"/>
+      <c r="F70" s="148"/>
+      <c r="G70" s="149"/>
       <c r="H70" s="51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I70" s="51"/>
-      <c r="J70" s="49"/>
-      <c r="K70" s="147"/>
-    </row>
-    <row r="71" spans="1:11" s="59" customFormat="1">
+      <c r="J70" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="K70" s="142"/>
+    </row>
+    <row r="71" spans="1:11" s="59" customFormat="1" ht="10.199999999999999">
       <c r="A71" s="117" t="s">
         <v>0</v>
       </c>
       <c r="B71" s="132"/>
       <c r="C71" s="133"/>
-      <c r="D71" s="140"/>
-      <c r="E71" s="141"/>
-      <c r="F71" s="140"/>
-      <c r="G71" s="141"/>
+      <c r="D71" s="148"/>
+      <c r="E71" s="149"/>
+      <c r="F71" s="148"/>
+      <c r="G71" s="149"/>
       <c r="H71" s="117" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I71" s="117" t="s">
         <v>26</v>
       </c>
       <c r="J71" s="117"/>
-      <c r="K71" s="147"/>
-    </row>
-    <row r="72" spans="1:11" s="59" customFormat="1">
+      <c r="K71" s="142"/>
+    </row>
+    <row r="72" spans="1:11" s="59" customFormat="1" ht="10.199999999999999">
       <c r="A72" s="52">
         <v>999</v>
       </c>
       <c r="B72" s="134"/>
       <c r="C72" s="135"/>
-      <c r="D72" s="142"/>
-      <c r="E72" s="143"/>
-      <c r="F72" s="142"/>
-      <c r="G72" s="143"/>
+      <c r="D72" s="150"/>
+      <c r="E72" s="151"/>
+      <c r="F72" s="150"/>
+      <c r="G72" s="151"/>
       <c r="H72" s="54">
         <v>43385</v>
       </c>
       <c r="I72" s="51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J72" s="55"/>
-      <c r="K72" s="148"/>
+      <c r="K72" s="143"/>
     </row>
     <row r="73" spans="1:11" s="59" customFormat="1">
       <c r="A73" s="63"/>
@@ -4808,6 +4801,11 @@
     <mergeCell ref="B68:C72"/>
     <mergeCell ref="D68:E72"/>
     <mergeCell ref="F68:G72"/>
+    <mergeCell ref="B61:C65"/>
+    <mergeCell ref="D61:E65"/>
+    <mergeCell ref="B54:C58"/>
+    <mergeCell ref="D54:E58"/>
+    <mergeCell ref="F41:G45"/>
     <mergeCell ref="H68:I68"/>
     <mergeCell ref="K68:K72"/>
     <mergeCell ref="B66:K66"/>
@@ -4815,8 +4813,6 @@
     <mergeCell ref="D67:E67"/>
     <mergeCell ref="F67:G67"/>
     <mergeCell ref="H67:I67"/>
-    <mergeCell ref="B61:C65"/>
-    <mergeCell ref="D61:E65"/>
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="K61:K65"/>
     <mergeCell ref="F61:G65"/>
@@ -4825,7 +4821,13 @@
     <mergeCell ref="D60:E60"/>
     <mergeCell ref="F60:G60"/>
     <mergeCell ref="H60:I60"/>
-    <mergeCell ref="K22:K26"/>
+    <mergeCell ref="K16:K20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B22:C26"/>
+    <mergeCell ref="D22:E26"/>
+    <mergeCell ref="H22:I22"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
@@ -4833,15 +4835,6 @@
     <mergeCell ref="B16:C20"/>
     <mergeCell ref="D16:E20"/>
     <mergeCell ref="H16:I16"/>
-    <mergeCell ref="K16:K20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B22:C26"/>
-    <mergeCell ref="D22:E26"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="B54:C58"/>
-    <mergeCell ref="D54:E58"/>
     <mergeCell ref="H54:I54"/>
     <mergeCell ref="K54:K58"/>
     <mergeCell ref="B28:C28"/>
@@ -4857,6 +4850,7 @@
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="F53:G53"/>
     <mergeCell ref="H53:I53"/>
+    <mergeCell ref="K47:K51"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="H40:I40"/>
     <mergeCell ref="H8:I8"/>
@@ -4871,32 +4865,31 @@
     <mergeCell ref="D35:E39"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="F35:G39"/>
-    <mergeCell ref="K47:K51"/>
-    <mergeCell ref="F41:G45"/>
-    <mergeCell ref="K41:K45"/>
-    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="D9:E13"/>
     <mergeCell ref="H47:I47"/>
     <mergeCell ref="B47:C51"/>
     <mergeCell ref="D41:E45"/>
     <mergeCell ref="D47:E51"/>
     <mergeCell ref="F47:G51"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="D9:E13"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C13"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B41:C45"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="H34:I34"/>
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="B35:C39"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="B40:C40"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C13"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="B41:C45"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="K41:K45"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="K22:K26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H47:I47">
